--- a/pred_ohlcv/54_21/2020-01-11 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 RDN ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>868147.5973628962</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>841927.4891628962</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>821030.4153628962</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +756,7 @@
         <v>830050.0818048542</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>655182.9491048541</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>641376.8466048541</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>636608.6082048541</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>461071.2423360261</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>384662.8701360261</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>390454.5569360261</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>401394.1766873837</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 RDN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>689948.0121628961</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>706316.6784628961</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>756752.2437628962</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>837715.8582628962</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>833579.4254628962</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>868147.5973628962</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>841927.4891628962</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>821030.4153628962</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>777435.2397628962</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>795699.3284048542</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>830050.0818048542</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,7 +886,7 @@
         <v>655182.9491048541</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>659339.3836048541</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>649142.0101048541</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>649372.0101048541</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>641376.8466048541</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>636608.6082048541</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>445608.9237360261</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>438366.0217360261</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>384662.8701360261</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>390454.5569360261</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>398120.5456873837</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>398120.5456873837</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>397720.5456873837</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>401394.1766873837</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>401394.1766873837</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>399857.7158873837</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>399857.7158873837</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>399503.9513873837</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>400017.9513873837</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>400653.4320873838</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>400653.4320873838</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>406615.2205873838</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>406615.2205873838</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>406615.2205873838</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>424724.6465873838</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>449255.8174242955</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>461864.9306242955</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>448041.1140242955</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>444515.2509242955</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>436088.3033242955</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>436088.3033242955</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>432952.0894242955</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>435423.3641242955</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>435423.3641242955</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>429430.1916242955</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>447090.6846242956</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>447262.1116242956</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>444255.1977242956</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>453110.6331242956</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>464145.8327242956</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
